--- a/Rule/MaxRefundRule.xlsx
+++ b/Rule/MaxRefundRule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teddy.chandra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3907CF45-AF05-4481-9575-AAFA79401F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MaxRefund" sheetId="1" r:id="rId1"/>
@@ -139,9 +138,6 @@
     <t>PACKET</t>
   </si>
   <si>
-    <t>~(AppFinData.TotalInterestAmt + (AppFinData.TotalLifeInsCustAmt - AppFinData.TotalLifeInsInscoAmt) + (AppFinData.TotalInsCustAmt - AppFinData.TotalInsInscoAmt) + ApFeeObj.AppAdminFeeAmt + ApFeeObj.AppProvisionFeeAmt + ApFeeObj.AppOtherFeeAmt+5000000)*0.175</t>
-  </si>
-  <si>
     <t>SETTINGS</t>
   </si>
   <si>
@@ -155,12 +151,15 @@
   </si>
   <si>
     <t>INTEREST_INCOME</t>
+  </si>
+  <si>
+    <t>~(AppFinData.TotalInterestAmt + (AppFinData.TotalLifeInsCustAmt - AppFinData.TotalLifeInsInscoAmt) + (AppFinData.TotalInsCustAmt - AppFinData.TotalInsInscoAmt) + ApFeeObj.AppAdminFeeAmt + ApFeeObj.AppProvisionFeeAmt + ApFeeObj.AppOtherFeeAmt-5000000)*0.175</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,25 +512,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="144" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -539,7 +538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -547,7 +546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -555,7 +554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -563,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -571,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -579,37 +578,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>41</v>
       </c>
       <c r="B12" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -617,7 +616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -625,13 +624,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -639,15 +638,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -655,7 +654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -663,7 +662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
@@ -671,7 +670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -686,26 +685,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -713,7 +712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -721,7 +720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -729,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -737,7 +736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -745,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -753,15 +752,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -769,7 +768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -780,7 +779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>7</v>
@@ -789,7 +788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -800,7 +799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -811,7 +810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>20</v>
@@ -820,7 +819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
@@ -829,7 +828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>22</v>
@@ -838,7 +837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>23</v>
@@ -847,7 +846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>24</v>
@@ -856,25 +855,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="3">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
@@ -885,7 +884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>20</v>
@@ -894,7 +893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>21</v>
@@ -903,7 +902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>22</v>
@@ -912,7 +911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>23</v>
@@ -921,7 +920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>24</v>
@@ -930,7 +929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>36</v>
@@ -939,16 +938,16 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="3">
         <v>5000000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -959,7 +958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>21</v>
@@ -968,7 +967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
         <v>22</v>
@@ -977,7 +976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>23</v>
@@ -986,7 +985,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>24</v>
@@ -995,7 +994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>36</v>
@@ -1004,16 +1003,16 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="3">
         <v>5000000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
         <v>22</v>
@@ -1033,7 +1032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>23</v>
@@ -1042,7 +1041,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>24</v>
@@ -1051,7 +1050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
         <v>36</v>
@@ -1060,16 +1059,16 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="3">
         <v>5000000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>35</v>
       </c>
@@ -1080,7 +1079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>21</v>
@@ -1089,7 +1088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
         <v>22</v>
@@ -1098,7 +1097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>23</v>
@@ -1107,7 +1106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
         <v>24</v>
@@ -1116,7 +1115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
         <v>36</v>
@@ -1125,9 +1124,9 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="3">
         <v>5000000</v>
